--- a/LOGS/29c1bb54-6aa7-4131-bfb2-0fb2b7de7b53/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/29c1bb54-6aa7-4131-bfb2-0fb2b7de7b53/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="146">
   <si>
     <t>rows</t>
   </si>
@@ -174,6 +174,69 @@
     <t>9</t>
   </si>
   <si>
+    <t>None Balance at 1 April 2022 (146)</t>
+  </si>
+  <si>
+    <t>None nan (620)</t>
+  </si>
+  <si>
+    <t>None Interest for the year (29)</t>
+  </si>
+  <si>
+    <t>None Payments during the year 221</t>
+  </si>
+  <si>
+    <t>None nan (496)</t>
+  </si>
+  <si>
+    <t>None Balance as at 31 March 2023 (1,070)</t>
+  </si>
+  <si>
+    <t>Consisting of: Current (262)</t>
+  </si>
+  <si>
+    <t>Consisting of: Non-current (808)</t>
+  </si>
+  <si>
+    <t>Consisting of: as at 31 March 2023 (1,070)</t>
+  </si>
+  <si>
+    <t>Consisting of: As at 31 March 2022 Building</t>
+  </si>
+  <si>
+    <t>Consisting of: at 1 April 2021 (314)</t>
+  </si>
+  <si>
+    <t>Consisting of: Ac Additions nan</t>
+  </si>
+  <si>
+    <t>Consisting of: Interest for the year (10)</t>
+  </si>
+  <si>
+    <t>Consisting of: Payments during the year 178</t>
+  </si>
+  <si>
+    <t>Consisting of: Total nan</t>
+  </si>
+  <si>
+    <t>Consisting of: Balance as at 31 March 2022 (146)</t>
+  </si>
+  <si>
+    <t>Consisting of: Current liabilities (146)</t>
+  </si>
+  <si>
+    <t>Consisting of: Non- current liabilities nan</t>
+  </si>
+  <si>
+    <t>Consisting of: as at 31 March 2022 (146)</t>
+  </si>
+  <si>
+    <t>Forest land</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>None 2022 at 1 April 2022</t>
   </si>
   <si>
@@ -201,12 +264,6 @@
     <t>Building</t>
   </si>
   <si>
-    <t>Forest land</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>None Opening balance</t>
   </si>
   <si>
@@ -366,25 +423,22 @@
     <t>Financial income Total</t>
   </si>
   <si>
-    <t>Total Interest cost</t>
-  </si>
-  <si>
-    <t>Total Interest on lease</t>
-  </si>
-  <si>
-    <t>Total Bank fees</t>
-  </si>
-  <si>
-    <t>Total Other finance</t>
-  </si>
-  <si>
-    <t>Total Total</t>
-  </si>
-  <si>
-    <t>Total Foreign currency losses</t>
-  </si>
-  <si>
-    <t>Total Net financing costs</t>
+    <t>Financial income Interest cost</t>
+  </si>
+  <si>
+    <t>Financial income Interest on lease</t>
+  </si>
+  <si>
+    <t>Financial income Bank fees</t>
+  </si>
+  <si>
+    <t>Financial income Other finance</t>
+  </si>
+  <si>
+    <t>Financial income Foreign currency losses</t>
+  </si>
+  <si>
+    <t>Financial income Net financing costs</t>
   </si>
   <si>
     <t>3</t>
@@ -926,7 +980,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -938,12 +992,12 @@
         <v>-51247</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -955,12 +1009,12 @@
         <v>12528</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -972,12 +1026,12 @@
         <v>826</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -989,12 +1043,12 @@
         <v>-37893</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1006,12 +1060,12 @@
         <v>-56251</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1023,12 +1077,12 @@
         <v>7277</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1040,12 +1094,12 @@
         <v>-84</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1057,7 +1111,7 @@
         <v>-49058</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1092,10 +1146,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1104,15 +1158,15 @@
         <v>38627</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1121,15 +1175,15 @@
         <v>166391</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1138,12 +1192,12 @@
         <v>205018</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1155,12 +1209,12 @@
         <v>40384</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1172,12 +1226,12 @@
         <v>223426</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1189,7 +1243,7 @@
         <v>263810</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1278,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1236,12 +1290,12 @@
         <v>1628</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1253,12 +1307,12 @@
         <v>2003</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1270,12 +1324,12 @@
         <v>6551</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1287,12 +1341,12 @@
         <v>1730</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1304,12 +1358,12 @@
         <v>1576</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1321,7 +1375,7 @@
         <v>5344</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1410,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1368,12 +1422,12 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1385,12 +1439,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1402,12 +1456,12 @@
         <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1419,12 +1473,12 @@
         <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1436,12 +1490,12 @@
         <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1453,12 +1507,12 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1470,12 +1524,12 @@
         <v>234</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1487,12 +1541,12 @@
         <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1504,12 +1558,12 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1521,7 +1575,7 @@
         <v>363</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1610,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1568,12 +1622,12 @@
         <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1585,12 +1639,12 @@
         <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1602,12 +1656,12 @@
         <v>-8674</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1619,12 +1673,12 @@
         <v>-1069</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1636,12 +1690,12 @@
         <v>-94</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1653,12 +1707,12 @@
         <v>-832</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1670,12 +1724,12 @@
         <v>-10669</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1687,12 +1741,12 @@
         <v>-1559</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1704,12 +1758,12 @@
         <v>-12068</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1721,12 +1775,12 @@
         <v>382</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1738,12 +1792,12 @@
         <v>382</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1755,12 +1809,12 @@
         <v>-3853</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1772,12 +1826,12 @@
         <v>-900</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1789,12 +1843,12 @@
         <v>-41</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1806,12 +1860,12 @@
         <v>-756</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1823,12 +1877,12 @@
         <v>-5550</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1840,12 +1894,12 @@
         <v>-345</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1857,7 +1911,7 @@
         <v>-5513</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1892,7 +1946,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1904,12 +1958,12 @@
         <v>11697</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1921,12 +1975,12 @@
         <v>11697</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1938,12 +1992,12 @@
         <v>-41931</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1955,12 +2009,12 @@
         <v>11741</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1972,12 +2026,12 @@
         <v>-4</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1989,12 +2043,12 @@
         <v>-40</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -2006,12 +2060,12 @@
         <v>11697</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2023,12 +2077,12 @@
         <v>-5479</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2040,12 +2094,12 @@
         <v>-5479</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -2057,12 +2111,12 @@
         <v>19100</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -2074,12 +2128,12 @@
         <v>-5348</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2091,12 +2145,12 @@
         <v>-97</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -2108,12 +2162,12 @@
         <v>-34</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -2125,7 +2179,7 @@
         <v>-5479</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4813,12 +4867,676 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>-27951</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>-1040</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>2414</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>-1181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>-27758</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>-2331</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>-25427</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10">
+        <v>-27758</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="D12">
+        <v>-19867</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>2023</v>
+      </c>
+      <c r="D13">
+        <v>-9986</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>2023</v>
+      </c>
+      <c r="D14">
+        <v>-890</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <v>2023</v>
+      </c>
+      <c r="D15">
+        <v>2270</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>2023</v>
+      </c>
+      <c r="D16">
+        <v>522</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17">
+        <v>2023</v>
+      </c>
+      <c r="D17">
+        <v>-27951</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18">
+        <v>2023</v>
+      </c>
+      <c r="D18">
+        <v>-2339</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <v>2023</v>
+      </c>
+      <c r="D19">
+        <v>-25612</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>2023</v>
+      </c>
+      <c r="D20">
+        <v>-27951</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>2022</v>
+      </c>
+      <c r="D21">
+        <v>-28097</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>2022</v>
+      </c>
+      <c r="D22">
+        <v>-620</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>2022</v>
+      </c>
+      <c r="D23">
+        <v>-1069</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>2022</v>
+      </c>
+      <c r="D24">
+        <v>2635</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>2022</v>
+      </c>
+      <c r="D25">
+        <v>-1677</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26">
+        <v>2022</v>
+      </c>
+      <c r="D26">
+        <v>-28828</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>2022</v>
+      </c>
+      <c r="D27">
+        <v>-2593</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>2022</v>
+      </c>
+      <c r="D28">
+        <v>-26235</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>2022</v>
+      </c>
+      <c r="D29">
+        <v>-28828</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>2022</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>2022</v>
+      </c>
+      <c r="D31">
+        <v>-20181</v>
+      </c>
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>2022</v>
+      </c>
+      <c r="D32">
+        <v>-9986</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>2022</v>
+      </c>
+      <c r="D33">
+        <v>-900</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>2022</v>
+      </c>
+      <c r="D34">
+        <v>2448</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>2022</v>
+      </c>
+      <c r="D35">
+        <v>522</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36">
+        <v>2022</v>
+      </c>
+      <c r="D36">
+        <v>-28097</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>2022</v>
+      </c>
+      <c r="D37">
+        <v>-2485</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38">
+        <v>2022</v>
+      </c>
+      <c r="D38">
+        <v>-25612</v>
+      </c>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>2022</v>
+      </c>
+      <c r="D39">
+        <v>-28097</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4850,10 +5568,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -4862,15 +5580,15 @@
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4879,15 +5597,15 @@
         <v>620</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4896,15 +5614,15 @@
         <v>-200</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -4913,15 +5631,15 @@
         <v>495</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -4930,15 +5648,15 @@
         <v>1050</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -4947,15 +5665,15 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -4964,15 +5682,15 @@
         <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -4981,15 +5699,15 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -4998,15 +5716,15 @@
         <v>-160</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -5015,15 +5733,15 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -5032,15 +5750,15 @@
         <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -5049,15 +5767,15 @@
         <v>28578</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -5066,15 +5784,15 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -5083,15 +5801,15 @@
         <v>-1803</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -5100,15 +5818,15 @@
         <v>1181</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -5117,15 +5835,15 @@
         <v>27956</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -5134,15 +5852,15 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -5151,15 +5869,15 @@
         <v>20531</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -5168,15 +5886,15 @@
         <v>9986</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -5185,15 +5903,15 @@
         <v>-1416</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -5202,15 +5920,15 @@
         <v>-523</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -5219,12 +5937,12 @@
         <v>28578</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -5236,12 +5954,12 @@
         <v>28713</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
@@ -5253,12 +5971,12 @@
         <v>620</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
@@ -5270,12 +5988,12 @@
         <v>-2003</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
@@ -5287,12 +6005,12 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
         <v>46</v>
@@ -5304,12 +6022,12 @@
         <v>29006</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
@@ -5321,12 +6039,12 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
         <v>46</v>
@@ -5338,12 +6056,12 @@
         <v>20826</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
@@ -5355,12 +6073,12 @@
         <v>9986</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
         <v>46</v>
@@ -5372,12 +6090,12 @@
         <v>-1576</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
         <v>46</v>
@@ -5389,12 +6107,12 @@
         <v>-523</v>
       </c>
       <c r="E33" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
         <v>46</v>
@@ -5406,7 +6124,7 @@
         <v>28713</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5441,10 +6159,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -5453,15 +6171,15 @@
         <v>471595</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -5470,15 +6188,15 @@
         <v>2000</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -5487,15 +6205,15 @@
         <v>-14313</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -5504,15 +6222,15 @@
         <v>2440</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -5521,15 +6239,15 @@
         <v>-21022</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -5538,15 +6256,15 @@
         <v>440700</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -5555,15 +6273,15 @@
         <v>338372</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -5572,15 +6290,15 @@
         <v>124223</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -5589,15 +6307,15 @@
         <v>-14032</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -5606,15 +6324,15 @@
         <v>1780</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -5623,15 +6341,15 @@
         <v>21252</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -5640,7 +6358,7 @@
         <v>471595</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -5675,7 +6393,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -5687,12 +6405,12 @@
         <v>137203</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -5704,12 +6422,12 @@
         <v>57731</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -5721,12 +6439,12 @@
         <v>194934</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -5738,12 +6456,12 @@
         <v>137203</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -5755,12 +6473,12 @@
         <v>91604</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -5772,7 +6490,7 @@
         <v>228807</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5807,10 +6525,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -5819,15 +6537,15 @@
         <v>10258</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -5836,15 +6554,15 @@
         <v>5137</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -5853,12 +6571,12 @@
         <v>15395</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -5870,12 +6588,12 @@
         <v>7509</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -5887,12 +6605,12 @@
         <v>14011</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -5904,7 +6622,7 @@
         <v>21520</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5939,7 +6657,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -5948,12 +6666,12 @@
         <v>28100</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -5962,12 +6680,12 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -5976,12 +6694,12 @@
         <v>28000</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -5990,12 +6708,12 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -6004,12 +6722,12 @@
         <v>15000</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -6018,12 +6736,12 @@
         <v>84100</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -6032,12 +6750,12 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -6046,12 +6764,12 @@
         <v>10000</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -6060,12 +6778,12 @@
         <v>40000</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -6074,12 +6792,12 @@
         <v>25000</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -6088,12 +6806,12 @@
         <v>25000</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -6102,12 +6820,12 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -6116,12 +6834,12 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -6130,12 +6848,12 @@
         <v>19000</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -6144,12 +6862,12 @@
         <v>20000</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -6158,12 +6876,12 @@
         <v>15000</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -6172,12 +6890,12 @@
         <v>16000</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -6186,12 +6904,12 @@
         <v>60750</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -6200,12 +6918,12 @@
         <v>11000</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -6214,12 +6932,12 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -6228,12 +6946,12 @@
         <v>2000</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -6242,12 +6960,12 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -6256,12 +6974,12 @@
         <v>93750</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -6270,12 +6988,12 @@
         <v>28000</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -6284,12 +7002,12 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -6298,12 +7016,12 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -6312,12 +7030,12 @@
         <v>25000</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -6326,12 +7044,12 @@
         <v>25000</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -6340,12 +7058,12 @@
         <v>15000</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -6354,12 +7072,12 @@
         <v>13000</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -6368,12 +7086,12 @@
         <v>19000</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C33">
         <v>2022</v>
@@ -6382,12 +7100,12 @@
         <v>20000</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C34">
         <v>2022</v>
@@ -6396,12 +7114,12 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -6410,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
